--- a/Problems1-24-Autumn.xlsx
+++ b/Problems1-24-Autumn.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kapji/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kapji/Documents/MIPT/mipt_DB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F6F50D8-88FB-1F45-BD85-896BEB601FB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F96F5B1B-06F2-8C4A-8903-F87769DC10F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="500" windowWidth="28800" windowHeight="16400" activeTab="1" xr2:uid="{5E4E8D5B-80B7-42B3-8E4D-AA64E4F1D526}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" activeTab="1" xr2:uid="{5E4E8D5B-80B7-42B3-8E4D-AA64E4F1D526}"/>
   </bookViews>
   <sheets>
     <sheet name="Var2" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="217">
   <si>
     <t>}</t>
   </si>
@@ -845,7 +845,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
@@ -871,11 +871,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -885,35 +881,28 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4942,8 +4931,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A2:U194"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScale="136" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView topLeftCell="A119" zoomScale="136" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O121" sqref="O121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4961,7 +4950,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="20">
+      <c r="A2" s="18">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -5238,7 +5227,7 @@
       <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A18" s="20">
+      <c r="A18" s="18">
         <v>2</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -5247,7 +5236,7 @@
     </row>
     <row r="19" spans="1:21" ht="23" x14ac:dyDescent="0.3">
       <c r="C19" s="6"/>
-      <c r="H19" s="18"/>
+      <c r="H19" s="17"/>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="H21" s="7">
@@ -5373,7 +5362,7 @@
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A29" s="20">
+      <c r="A29" s="18">
         <v>3</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -5525,7 +5514,7 @@
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A39" s="20">
+      <c r="A39" s="18">
         <v>4</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -5591,7 +5580,7 @@
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49" s="20">
+      <c r="A49" s="18">
         <v>5</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -5658,7 +5647,7 @@
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A56" s="20">
+      <c r="A56" s="18">
         <v>6</v>
       </c>
       <c r="B56" s="2" t="s">
@@ -5737,7 +5726,7 @@
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A64" s="20">
+      <c r="A64" s="18">
         <v>7</v>
       </c>
       <c r="B64" s="2" t="s">
@@ -5750,7 +5739,7 @@
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A67" s="20">
+      <c r="A67" s="18">
         <v>8</v>
       </c>
       <c r="B67" s="2" t="s">
@@ -5998,7 +5987,7 @@
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A89" s="20">
+      <c r="A89" s="18">
         <v>9</v>
       </c>
       <c r="B89" s="2" t="s">
@@ -6130,7 +6119,7 @@
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A100" s="20">
+      <c r="A100" s="18">
         <v>10</v>
       </c>
       <c r="B100" s="2" t="s">
@@ -6809,7 +6798,7 @@
       </c>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A143" s="20">
+      <c r="A143" s="18">
         <v>11</v>
       </c>
       <c r="B143" s="2" t="s">
@@ -6848,7 +6837,7 @@
       </c>
     </row>
     <row r="151" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A151" s="20">
+      <c r="A151" s="18">
         <v>12</v>
       </c>
       <c r="B151" s="2" t="s">
@@ -7137,7 +7126,7 @@
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A171" s="20">
+      <c r="A171" s="18">
         <v>13</v>
       </c>
       <c r="B171" s="2" t="s">
@@ -7171,7 +7160,7 @@
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A179" s="20">
+      <c r="A179" s="18">
         <v>14</v>
       </c>
       <c r="B179" s="2" t="s">
@@ -7199,7 +7188,7 @@
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A186" s="20">
+      <c r="A186" s="18">
         <v>15</v>
       </c>
       <c r="B186" s="2" t="s">
@@ -7207,7 +7196,7 @@
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A188" s="20">
+      <c r="A188" s="18">
         <v>16</v>
       </c>
       <c r="B188" s="2" t="s">
@@ -7215,7 +7204,7 @@
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A190" s="20">
+      <c r="A190" s="18">
         <v>17</v>
       </c>
       <c r="B190" s="2" t="s">
@@ -7223,7 +7212,7 @@
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A192" s="20">
+      <c r="A192" s="18">
         <v>18</v>
       </c>
       <c r="B192" s="2" t="s">
@@ -7231,7 +7220,7 @@
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A194" s="20">
+      <c r="A194" s="18">
         <v>19</v>
       </c>
       <c r="B194" s="2" t="s">
@@ -7246,10 +7235,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1953CC14-3C8B-E64B-89FB-3A1ECDCBCFE2}">
-  <dimension ref="A3:V206"/>
+  <dimension ref="A3:U206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" zoomScale="114" workbookViewId="0">
-      <selection activeCell="I206" sqref="I206"/>
+    <sheetView tabSelected="1" topLeftCell="A114" zoomScale="114" workbookViewId="0">
+      <selection activeCell="H92" sqref="H92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7490,44 +7479,6 @@
       <c r="E17" s="7">
         <v>3</v>
       </c>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="17"/>
-      <c r="T18" s="17"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="17"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="17"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20">
@@ -7536,23 +7487,22 @@
       <c r="C20" t="s">
         <v>181</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="F20" s="22">
+      <c r="F20" s="20">
         <v>1</v>
       </c>
-      <c r="G20" s="26" t="s">
+      <c r="G20" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="H20" s="17"/>
-      <c r="I20" s="30" t="s">
+      <c r="I20" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="J20" s="22" t="s">
+      <c r="J20" s="20" t="s">
         <v>97</v>
       </c>
       <c r="L20" t="s">
@@ -7561,654 +7511,486 @@
       <c r="M20" s="7">
         <v>1</v>
       </c>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="17"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="E21" s="25" t="s">
+      <c r="E21" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="22">
+      <c r="F21" s="20">
         <v>1</v>
       </c>
-      <c r="G21" s="26" t="s">
+      <c r="G21" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="24" t="s">
+      <c r="J21" s="22" t="s">
         <v>111</v>
       </c>
       <c r="M21" s="7">
         <v>2</v>
       </c>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="27"/>
-      <c r="S21" s="27"/>
-      <c r="T21" s="27"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="19"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="D22" s="24" t="s">
+      <c r="D22" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="E22" s="25" t="s">
+      <c r="E22" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="22">
+      <c r="F22" s="20">
         <v>1</v>
       </c>
-      <c r="G22" s="26" t="s">
+      <c r="G22" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="24" t="s">
+      <c r="J22" s="22" t="s">
         <v>98</v>
       </c>
       <c r="M22" s="7">
         <v>3</v>
       </c>
-      <c r="N22" s="27"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="27"/>
-      <c r="R22" s="27"/>
-      <c r="S22" s="28"/>
-      <c r="T22" s="29"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="25"/>
+      <c r="T22" s="26"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="E23" s="23" t="s">
+      <c r="E23" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="F23" s="24">
+      <c r="F23" s="22">
         <v>2</v>
       </c>
-      <c r="G23" s="26" t="s">
+      <c r="G23" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="27"/>
-      <c r="S23" s="27"/>
-      <c r="T23" s="27"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="19"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="D24" s="24" t="s">
+      <c r="D24" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="E24" s="25" t="s">
+      <c r="E24" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F24" s="24">
+      <c r="F24" s="22">
         <v>2</v>
       </c>
-      <c r="G24" s="26" t="s">
+      <c r="G24" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
-      <c r="S24" s="17"/>
-      <c r="T24" s="17"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="E25" s="25" t="s">
+      <c r="E25" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="24">
+      <c r="F25" s="22">
         <v>2</v>
       </c>
-      <c r="G25" s="26" t="s">
+      <c r="G25" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
-      <c r="R25" s="17"/>
-      <c r="S25" s="17"/>
-      <c r="T25" s="17"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="C26" s="17"/>
-      <c r="D26" s="22" t="s">
+      <c r="D26" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="E26" s="23" t="s">
+      <c r="E26" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="F26" s="24">
+      <c r="F26" s="22">
         <v>3</v>
       </c>
-      <c r="G26" s="26" t="s">
+      <c r="G26" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
-      <c r="R26" s="17"/>
-      <c r="S26" s="17"/>
-      <c r="T26" s="17"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="C27" s="17"/>
-      <c r="D27" s="24" t="s">
+      <c r="D27" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="E27" s="25" t="s">
+      <c r="E27" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F27" s="24">
+      <c r="F27" s="22">
         <v>3</v>
       </c>
-      <c r="G27" s="26" t="s">
+      <c r="G27" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
-      <c r="R27" s="17"/>
-      <c r="S27" s="17"/>
-      <c r="T27" s="17"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="C28" s="17"/>
-      <c r="D28" s="24" t="s">
+      <c r="D28" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="E28" s="25" t="s">
+      <c r="E28" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="24">
+      <c r="F28" s="22">
         <v>3</v>
       </c>
-      <c r="G28" s="26" t="s">
+      <c r="G28" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>5</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" t="s">
         <v>185</v>
       </c>
-      <c r="D31" s="36">
+      <c r="D31" s="32">
         <v>45544</v>
       </c>
-      <c r="E31" s="23" t="s">
+      <c r="E31" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="F31" s="22">
+      <c r="F31" s="20">
         <v>9</v>
       </c>
-      <c r="G31" s="22" t="s">
+      <c r="G31" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="C32" s="17"/>
-      <c r="D32" s="34">
+      <c r="D32" s="30">
         <v>45534</v>
       </c>
-      <c r="E32" s="25" t="s">
+      <c r="E32" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="F32" s="24">
+      <c r="F32" s="22">
         <v>9</v>
       </c>
-      <c r="G32" s="25" t="s">
+      <c r="G32" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="19"/>
-      <c r="O33" s="31"/>
-      <c r="P33" s="17"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N33" s="15"/>
+      <c r="O33" s="27"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>6</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C35" t="s">
         <v>184</v>
       </c>
-      <c r="D35" s="22">
+      <c r="D35" s="20">
         <v>12</v>
       </c>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C36" s="17"/>
-      <c r="D36" s="24">
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D36" s="22">
         <v>86</v>
       </c>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C38" s="17"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="35"/>
-      <c r="J38" s="27"/>
-      <c r="K38" s="35"/>
-      <c r="L38" s="35"/>
-      <c r="M38" s="27"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="19"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>7</v>
       </c>
-      <c r="C39" s="17"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="27"/>
-      <c r="K39" s="27"/>
-      <c r="L39" s="27"/>
-      <c r="M39" s="27"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D40" s="21"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="27"/>
-      <c r="K40" s="27"/>
-      <c r="L40" s="27"/>
-      <c r="M40" s="27"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D41" s="21"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="27"/>
-      <c r="K41" s="27"/>
-      <c r="L41" s="27"/>
-      <c r="M41" s="27"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D42" s="21"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="27"/>
-      <c r="K42" s="27"/>
-      <c r="L42" s="27"/>
-      <c r="M42" s="27"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="17"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="17"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D46" s="17"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="27"/>
-      <c r="I46" s="27"/>
-      <c r="J46" s="27"/>
-      <c r="K46" s="27"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D47" s="17"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="27"/>
-      <c r="I47" s="27"/>
-      <c r="J47" s="27"/>
-      <c r="K47" s="27"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="D48" s="17"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="27"/>
-      <c r="I48" s="27"/>
-      <c r="J48" s="27"/>
-      <c r="K48" s="27"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D49" s="17"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="27"/>
-      <c r="I49" s="27"/>
-      <c r="J49" s="27"/>
-      <c r="K49" s="27"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D50" s="17"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="27"/>
-      <c r="I50" s="27"/>
-      <c r="J50" s="27"/>
-      <c r="K50" s="27"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D51" s="17"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="27"/>
-      <c r="I51" s="27"/>
-      <c r="J51" s="27"/>
-      <c r="K51" s="27"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D52" s="17"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="27"/>
-      <c r="I52" s="27"/>
-      <c r="J52" s="27"/>
-      <c r="K52" s="27"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="17"/>
-      <c r="I53" s="17"/>
-      <c r="J53" s="17"/>
-      <c r="K53" s="17"/>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="E59" s="21"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="21"/>
-      <c r="H59" s="21"/>
-      <c r="I59" s="21"/>
-      <c r="J59" s="21"/>
-      <c r="K59" s="21"/>
-      <c r="L59" s="21"/>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="19"/>
+      <c r="M42" s="19"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="19"/>
+      <c r="K46" s="19"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="19"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="19"/>
+      <c r="K48" s="19"/>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="19"/>
+      <c r="K49" s="19"/>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="19"/>
+      <c r="K50" s="19"/>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="19"/>
+      <c r="K51" s="19"/>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="E52" s="19"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="19"/>
+      <c r="K52" s="19"/>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="19"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="19"/>
+      <c r="K59" s="19"/>
+      <c r="L59" s="19"/>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>8</v>
       </c>
       <c r="C60" t="s">
         <v>186</v>
       </c>
-      <c r="E60" s="21" t="s">
+      <c r="E60" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="F60" s="21"/>
-      <c r="G60" s="22">
+      <c r="F60" s="19"/>
+      <c r="G60" s="20">
         <v>1</v>
       </c>
-      <c r="H60" s="23">
+      <c r="H60" s="21">
         <v>7</v>
       </c>
-      <c r="I60" s="21"/>
-      <c r="J60" s="22" t="s">
+      <c r="I60" s="19"/>
+      <c r="J60" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="K60" s="23">
+      <c r="K60" s="21">
         <v>2</v>
       </c>
-      <c r="L60" s="21"/>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="E61" s="21"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="24">
+      <c r="L60" s="19"/>
+      <c r="M60" t="s">
+        <v>30</v>
+      </c>
+      <c r="O60" s="7">
+        <v>67</v>
+      </c>
+      <c r="P60" s="7">
+        <v>67</v>
+      </c>
+      <c r="R60" s="7">
+        <v>1</v>
+      </c>
+      <c r="S60" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="22">
         <v>2</v>
       </c>
-      <c r="H61" s="25">
+      <c r="H61" s="23">
         <v>8</v>
       </c>
-      <c r="I61" s="21"/>
-      <c r="J61" s="24" t="s">
+      <c r="I61" s="19"/>
+      <c r="J61" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="K61" s="25">
+      <c r="K61" s="23">
         <v>2</v>
       </c>
-      <c r="L61" s="21"/>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="E62" s="21"/>
-      <c r="F62" s="21"/>
-      <c r="G62" s="24">
+      <c r="L61" s="19"/>
+      <c r="O61" s="7">
+        <v>2</v>
+      </c>
+      <c r="P61" s="7">
+        <v>7</v>
+      </c>
+      <c r="R61" s="7">
+        <v>2</v>
+      </c>
+      <c r="S61" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="E62" s="19"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="22">
         <v>3</v>
       </c>
-      <c r="H62" s="25">
+      <c r="H62" s="23">
         <v>9</v>
       </c>
-      <c r="I62" s="21"/>
-      <c r="J62" s="24" t="s">
+      <c r="I62" s="19"/>
+      <c r="J62" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="K62" s="25">
+      <c r="K62" s="23">
         <v>2</v>
       </c>
-      <c r="L62" s="21"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="E63" s="21"/>
-      <c r="F63" s="21"/>
-      <c r="G63" s="24">
+      <c r="L62" s="19"/>
+      <c r="O62" s="7">
+        <v>87</v>
+      </c>
+      <c r="P62" s="7">
+        <v>65</v>
+      </c>
+      <c r="R62" s="7">
         <v>3</v>
       </c>
-      <c r="H63" s="25">
+      <c r="S62" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="E63" s="19"/>
+      <c r="F63" s="19"/>
+      <c r="G63" s="22">
+        <v>3</v>
+      </c>
+      <c r="H63" s="23">
         <v>9</v>
       </c>
-      <c r="I63" s="21"/>
-      <c r="J63" s="24" t="s">
+      <c r="I63" s="19"/>
+      <c r="J63" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="K63" s="25">
+      <c r="K63" s="23">
         <v>4</v>
       </c>
-      <c r="L63" s="21"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="E64" s="21"/>
-      <c r="F64" s="21"/>
-      <c r="G64" s="21"/>
-      <c r="H64" s="21"/>
-      <c r="I64" s="21"/>
-      <c r="J64" s="21"/>
-      <c r="K64" s="21"/>
-      <c r="L64" s="21"/>
+      <c r="L63" s="19"/>
+      <c r="O63" s="7">
+        <v>2</v>
+      </c>
+      <c r="P63" s="7">
+        <v>7</v>
+      </c>
+      <c r="R63" s="7">
+        <v>4</v>
+      </c>
+      <c r="S63" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="E64" s="19"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="19"/>
+      <c r="H64" s="19"/>
+      <c r="I64" s="19"/>
+      <c r="J64" s="19"/>
+      <c r="K64" s="19"/>
+      <c r="L64" s="19"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E65" t="s">
@@ -8278,121 +8060,121 @@
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C72" s="32" t="s">
+      <c r="C72" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D72" s="33" t="s">
+      <c r="D72" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="E72" s="33" t="s">
+      <c r="E72" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="F72" s="33" t="s">
+      <c r="F72" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="G72" s="33" t="s">
+      <c r="G72" s="29" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C73" s="38" t="s">
+      <c r="C73" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="D73" s="39" t="s">
+      <c r="D73" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="E73" s="39" t="s">
+      <c r="E73" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="F73" s="39" t="s">
+      <c r="F73" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="G73" s="39" t="s">
+      <c r="G73" s="35" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C74" s="24" t="s">
+      <c r="C74" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="D74" s="25" t="s">
+      <c r="D74" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="E74" s="25">
+      <c r="E74" s="23">
         <v>1</v>
       </c>
-      <c r="F74" s="25" t="s">
+      <c r="F74" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="G74" s="40">
+      <c r="G74" s="36">
         <v>36892</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C75" s="24" t="s">
+      <c r="C75" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="D75" s="25" t="s">
+      <c r="D75" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="E75" s="25">
+      <c r="E75" s="23">
         <v>2</v>
       </c>
-      <c r="F75" s="25" t="s">
+      <c r="F75" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="G75" s="40">
+      <c r="G75" s="36">
         <v>39815</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C76" s="24" t="s">
+      <c r="C76" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="D76" s="25" t="s">
+      <c r="D76" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="E76" s="25">
+      <c r="E76" s="23">
         <v>3</v>
       </c>
-      <c r="F76" s="25" t="s">
+      <c r="F76" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="G76" s="40">
+      <c r="G76" s="36">
         <v>43833</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C77" s="24" t="s">
+      <c r="C77" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="D77" s="25" t="s">
+      <c r="D77" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="E77" s="25">
+      <c r="E77" s="23">
         <v>1</v>
       </c>
-      <c r="F77" s="25" t="s">
+      <c r="F77" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="G77" s="40">
+      <c r="G77" s="36">
         <v>36892</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C78" s="24" t="s">
+      <c r="C78" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="D78" s="25" t="s">
+      <c r="D78" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="E78" s="25">
+      <c r="E78" s="23">
         <v>3</v>
       </c>
-      <c r="F78" s="25" t="s">
+      <c r="F78" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="G78" s="40">
+      <c r="G78" s="36">
         <v>42374</v>
       </c>
     </row>
@@ -8814,43 +8596,33 @@
       <c r="A106">
         <v>11</v>
       </c>
-      <c r="C106" s="32" t="s">
+      <c r="C106" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="E106" s="17"/>
-      <c r="F106" s="17"/>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C107" s="24" t="s">
+      <c r="C107" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="E107" s="17"/>
-      <c r="F107" s="35"/>
+      <c r="F107" s="31"/>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C108" s="24" t="s">
+      <c r="C108" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="E108" s="17"/>
-      <c r="F108" s="27"/>
+      <c r="F108" s="19"/>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C109" s="24" t="s">
+      <c r="C109" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="E109" s="17"/>
-      <c r="F109" s="27"/>
+      <c r="F109" s="19"/>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C110" s="41" t="s">
+      <c r="C110" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="E110" s="17"/>
-      <c r="F110" s="27"/>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="E111" s="17"/>
-      <c r="F111" s="17"/>
+      <c r="F110" s="19"/>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113">
@@ -8859,297 +8631,297 @@
       <c r="B113" t="s">
         <v>29</v>
       </c>
-      <c r="C113" s="32" t="s">
+      <c r="C113" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="D113" s="33" t="s">
+      <c r="D113" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E113" s="33" t="s">
+      <c r="E113" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="F113" s="33" t="s">
+      <c r="F113" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="G113" s="33" t="s">
+      <c r="G113" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="I113" s="43" t="s">
+      <c r="I113" s="38" t="s">
         <v>192</v>
       </c>
-      <c r="J113" s="32" t="s">
+      <c r="J113" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="K113" s="33" t="s">
+      <c r="K113" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="L113" s="33" t="s">
+      <c r="L113" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="M113" s="33" t="s">
+      <c r="M113" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="N113" s="33" t="s">
+      <c r="N113" s="29" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C114" s="24" t="s">
+      <c r="C114" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="D114" s="25">
+      <c r="D114" s="23">
         <v>15000</v>
       </c>
-      <c r="E114" s="25">
+      <c r="E114" s="23">
         <v>1</v>
       </c>
-      <c r="F114" s="25" t="s">
+      <c r="F114" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="G114" s="25" t="s">
+      <c r="G114" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="J114" s="24" t="s">
+      <c r="J114" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="K114" s="25" t="s">
+      <c r="K114" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="L114" s="25">
+      <c r="L114" s="23">
         <v>2</v>
       </c>
-      <c r="M114" s="25" t="s">
+      <c r="M114" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="N114" s="25" t="s">
+      <c r="N114" s="23" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C115" s="24" t="s">
+      <c r="C115" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="D115" s="25">
+      <c r="D115" s="23">
         <v>30000</v>
       </c>
-      <c r="E115" s="25">
+      <c r="E115" s="23">
         <v>1</v>
       </c>
-      <c r="F115" s="25" t="s">
+      <c r="F115" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="G115" s="25" t="s">
+      <c r="G115" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="J115" s="24" t="s">
+      <c r="J115" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="K115" s="25" t="s">
+      <c r="K115" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="L115" s="25">
+      <c r="L115" s="23">
         <v>1</v>
       </c>
-      <c r="M115" s="25" t="s">
+      <c r="M115" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="N115" s="25" t="s">
+      <c r="N115" s="23" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C116" s="24" t="s">
+      <c r="C116" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D116" s="25">
+      <c r="D116" s="23">
         <v>60000</v>
       </c>
-      <c r="E116" s="25">
+      <c r="E116" s="23">
         <v>1</v>
       </c>
-      <c r="F116" s="25" t="s">
+      <c r="F116" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="G116" s="25" t="s">
+      <c r="G116" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="J116" s="24" t="s">
+      <c r="J116" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="K116" s="25" t="s">
+      <c r="K116" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="L116" s="25">
+      <c r="L116" s="23">
         <v>2</v>
       </c>
-      <c r="M116" s="25" t="s">
+      <c r="M116" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="N116" s="25" t="s">
+      <c r="N116" s="23" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C117" s="24" t="s">
+      <c r="C117" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="D117" s="25">
+      <c r="D117" s="23">
         <v>17000</v>
       </c>
-      <c r="E117" s="25">
+      <c r="E117" s="23">
         <v>1</v>
       </c>
-      <c r="F117" s="25" t="s">
+      <c r="F117" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="G117" s="25" t="s">
+      <c r="G117" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="J117" s="24" t="s">
+      <c r="J117" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="K117" s="25" t="s">
+      <c r="K117" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="L117" s="25">
+      <c r="L117" s="23">
         <v>1</v>
       </c>
-      <c r="M117" s="25" t="s">
+      <c r="M117" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="N117" s="25" t="s">
+      <c r="N117" s="23" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C118" s="24" t="s">
+      <c r="C118" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="D118" s="25">
+      <c r="D118" s="23">
         <v>23000</v>
       </c>
-      <c r="E118" s="25">
+      <c r="E118" s="23">
         <v>1</v>
       </c>
-      <c r="F118" s="25" t="s">
+      <c r="F118" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="G118" s="25" t="s">
+      <c r="G118" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="J118" s="24" t="s">
+      <c r="J118" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="K118" s="25" t="s">
+      <c r="K118" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="L118" s="25">
+      <c r="L118" s="23">
         <v>1</v>
       </c>
-      <c r="M118" s="25" t="s">
+      <c r="M118" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="N118" s="25" t="s">
+      <c r="N118" s="23" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C119" s="24" t="s">
+      <c r="C119" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="D119" s="25">
+      <c r="D119" s="23">
         <v>25000</v>
       </c>
-      <c r="E119" s="25">
+      <c r="E119" s="23">
         <v>2</v>
       </c>
-      <c r="F119" s="25" t="s">
+      <c r="F119" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="G119" s="25" t="s">
+      <c r="G119" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="J119" s="24" t="s">
+      <c r="J119" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="K119" s="25" t="s">
+      <c r="K119" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="L119" s="25">
+      <c r="L119" s="23">
         <v>2</v>
       </c>
-      <c r="M119" s="25" t="s">
+      <c r="M119" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="N119" s="25" t="s">
+      <c r="N119" s="23" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C120" s="24" t="s">
+      <c r="C120" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="D120" s="25">
+      <c r="D120" s="23">
         <v>32000</v>
       </c>
-      <c r="E120" s="25">
+      <c r="E120" s="23">
         <v>2</v>
       </c>
-      <c r="F120" s="25" t="s">
+      <c r="F120" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="G120" s="25" t="s">
+      <c r="G120" s="23" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C121" s="24" t="s">
+      <c r="C121" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="D121" s="25">
+      <c r="D121" s="23">
         <v>16000</v>
       </c>
-      <c r="E121" s="25">
+      <c r="E121" s="23">
         <v>2</v>
       </c>
-      <c r="F121" s="25" t="s">
+      <c r="F121" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="G121" s="25" t="s">
+      <c r="G121" s="23" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C122" s="24" t="s">
+      <c r="C122" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="D122" s="25">
+      <c r="D122" s="23">
         <v>20000</v>
       </c>
-      <c r="E122" s="25">
+      <c r="E122" s="23">
         <v>2</v>
       </c>
-      <c r="F122" s="25" t="s">
+      <c r="F122" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="G122" s="25" t="s">
+      <c r="G122" s="23" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C123" s="24" t="s">
+      <c r="C123" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="D123" s="25">
+      <c r="D123" s="23">
         <v>40000</v>
       </c>
-      <c r="E123" s="25">
+      <c r="E123" s="23">
         <v>2</v>
       </c>
-      <c r="F123" s="25" t="s">
+      <c r="F123" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="G123" s="25" t="s">
+      <c r="G123" s="23" t="s">
         <v>153</v>
       </c>
     </row>
@@ -9157,99 +8929,99 @@
       <c r="B125" t="s">
         <v>32</v>
       </c>
-      <c r="C125" s="32" t="s">
+      <c r="C125" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="D125" s="33" t="s">
+      <c r="D125" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="E125" s="33" t="s">
+      <c r="E125" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="F125" s="32" t="s">
+      <c r="F125" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="G125" s="33" t="s">
+      <c r="G125" s="29" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C126" s="24">
+      <c r="C126" s="22">
         <v>1</v>
       </c>
-      <c r="D126" s="25" t="s">
+      <c r="D126" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="E126" s="25" t="s">
+      <c r="E126" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="F126" s="24" t="s">
+      <c r="F126" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="G126" s="42">
+      <c r="G126" s="37">
         <v>45627</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C127" s="24">
+      <c r="C127" s="22">
         <v>2</v>
       </c>
-      <c r="D127" s="25" t="s">
+      <c r="D127" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="E127" s="25" t="s">
+      <c r="E127" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="F127" s="24" t="s">
+      <c r="F127" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="G127" s="42">
+      <c r="G127" s="37">
         <v>45413</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C128" s="24">
+      <c r="C128" s="22">
         <v>1</v>
       </c>
-      <c r="D128" s="25" t="s">
+      <c r="D128" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="E128" s="25" t="s">
+      <c r="E128" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="F128" s="24" t="s">
+      <c r="F128" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="G128" s="42">
+      <c r="G128" s="37">
         <v>45413</v>
       </c>
     </row>
-    <row r="129" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C129" s="24">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C129" s="22">
         <v>2</v>
       </c>
-      <c r="D129" s="25" t="s">
+      <c r="D129" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="E129" s="25" t="s">
+      <c r="E129" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="F129" s="24" t="s">
+      <c r="F129" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="G129" s="42">
+      <c r="G129" s="37">
         <v>45627</v>
       </c>
     </row>
-    <row r="131" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="D131" s="30" t="s">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D131" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="E131" s="30" t="s">
+      <c r="E131" s="19" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="132" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>13</v>
       </c>
@@ -9274,7 +9046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B133" t="s">
         <v>193</v>
       </c>
@@ -9297,7 +9069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B134" t="s">
         <v>193</v>
       </c>
@@ -9320,7 +9092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>14</v>
       </c>
@@ -9334,7 +9106,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="138" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C138" s="7" t="s">
         <v>146</v>
       </c>
@@ -9345,7 +9117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C139" s="7" t="s">
         <v>63</v>
       </c>
@@ -9356,7 +9128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C140" s="7" t="s">
         <v>67</v>
       </c>
@@ -9366,13 +9138,8 @@
       <c r="E140" s="7">
         <v>2</v>
       </c>
-      <c r="F140" s="17"/>
-      <c r="K140" s="17"/>
-      <c r="L140" s="17"/>
-      <c r="M140" s="17"/>
-      <c r="N140" s="17"/>
-    </row>
-    <row r="141" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C141" s="7" t="s">
         <v>113</v>
       </c>
@@ -9382,16 +9149,8 @@
       <c r="E141" s="7">
         <v>1</v>
       </c>
-      <c r="G141" s="17"/>
-      <c r="H141" s="17"/>
-      <c r="I141" s="17"/>
-      <c r="J141" s="17"/>
-      <c r="K141" s="17"/>
-      <c r="L141" s="17"/>
-      <c r="M141" s="17"/>
-      <c r="N141" s="17"/>
-    </row>
-    <row r="142" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C142" s="7" t="s">
         <v>63</v>
       </c>
@@ -9401,16 +9160,8 @@
       <c r="E142" s="7">
         <v>1</v>
       </c>
-      <c r="G142" s="17"/>
-      <c r="H142" s="17"/>
-      <c r="I142" s="17"/>
-      <c r="J142" s="17"/>
-      <c r="K142" s="17"/>
-      <c r="L142" s="17"/>
-      <c r="M142" s="17"/>
-      <c r="N142" s="17"/>
-    </row>
-    <row r="143" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B143" s="2"/>
       <c r="C143" s="7" t="s">
         <v>68</v>
@@ -9421,683 +9172,276 @@
       <c r="E143" s="7">
         <v>2</v>
       </c>
-      <c r="G143" s="17"/>
-      <c r="H143" s="17"/>
-      <c r="I143" s="17"/>
-      <c r="J143" s="17"/>
-      <c r="K143" s="17"/>
-      <c r="L143" s="17"/>
-      <c r="M143" s="17"/>
-      <c r="N143" s="17"/>
-      <c r="O143" s="17"/>
-      <c r="P143" s="17"/>
-      <c r="Q143" s="17"/>
-      <c r="R143" s="17"/>
-      <c r="S143" s="17"/>
-      <c r="T143" s="17"/>
-      <c r="U143" s="17"/>
-      <c r="V143" s="17"/>
-    </row>
-    <row r="144" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B144" s="2"/>
-      <c r="C144" s="17"/>
-      <c r="D144" s="17"/>
-      <c r="E144" s="17"/>
-      <c r="F144" s="17"/>
-      <c r="G144" s="17"/>
-      <c r="H144" s="17"/>
-      <c r="I144" s="17"/>
-      <c r="J144" s="17"/>
-      <c r="K144" s="17"/>
-      <c r="L144" s="17"/>
-      <c r="M144" s="17"/>
-      <c r="N144" s="17"/>
-      <c r="O144" s="17"/>
-      <c r="P144" s="17"/>
-      <c r="Q144" s="17"/>
-      <c r="R144" s="17"/>
-      <c r="S144" s="17"/>
-      <c r="T144" s="17"/>
-      <c r="U144" s="17"/>
-      <c r="V144" s="17"/>
-    </row>
-    <row r="145" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="145" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B145" s="2"/>
-      <c r="C145" s="45" t="s">
+      <c r="C145" t="s">
         <v>195</v>
       </c>
-      <c r="D145" s="17"/>
-      <c r="E145" s="17"/>
-      <c r="F145" s="17"/>
-      <c r="G145" s="17"/>
-      <c r="H145" s="17"/>
-      <c r="I145" s="17"/>
-      <c r="J145" s="17"/>
-      <c r="K145" s="17"/>
-      <c r="L145" s="17"/>
-      <c r="M145" s="17"/>
-      <c r="N145" s="17"/>
-      <c r="O145" s="17"/>
-      <c r="P145" s="17"/>
-      <c r="Q145" s="17"/>
-      <c r="R145" s="17"/>
-      <c r="S145" s="17"/>
-      <c r="T145" s="17"/>
-      <c r="U145" s="17"/>
-      <c r="V145" s="17"/>
-    </row>
-    <row r="146" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="146" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B146" s="2"/>
-      <c r="C146" s="45" t="s">
+      <c r="C146" t="s">
         <v>196</v>
       </c>
-      <c r="D146" s="17"/>
-      <c r="E146" s="17"/>
-      <c r="F146" s="17"/>
-      <c r="G146" s="17"/>
-      <c r="H146" s="17"/>
-      <c r="I146" s="35"/>
-      <c r="J146" s="35"/>
-      <c r="K146" s="35"/>
-      <c r="L146" s="17"/>
-      <c r="M146" s="17"/>
-      <c r="N146" s="17"/>
-      <c r="O146" s="17"/>
-      <c r="P146" s="17"/>
-      <c r="Q146" s="17"/>
-      <c r="R146" s="17"/>
-      <c r="S146" s="17"/>
-      <c r="T146" s="17"/>
-      <c r="U146" s="17"/>
-      <c r="V146" s="17"/>
-    </row>
-    <row r="147" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="I146" s="31"/>
+      <c r="J146" s="31"/>
+      <c r="K146" s="31"/>
+    </row>
+    <row r="147" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B147" s="2"/>
-      <c r="C147" s="45" t="s">
+      <c r="C147" t="s">
         <v>197</v>
       </c>
-      <c r="D147" s="17"/>
-      <c r="E147" s="17"/>
-      <c r="F147" s="17"/>
-      <c r="G147" s="17"/>
-      <c r="H147" s="17"/>
-      <c r="I147" s="27"/>
-      <c r="J147" s="27"/>
-      <c r="K147" s="27"/>
-      <c r="L147" s="17"/>
-      <c r="M147" s="17"/>
-      <c r="N147" s="47"/>
-      <c r="O147" s="47"/>
-      <c r="P147" s="47"/>
-      <c r="Q147" s="17"/>
-      <c r="R147" s="17"/>
-      <c r="S147" s="47"/>
-      <c r="T147" s="47"/>
-      <c r="U147" s="47"/>
-      <c r="V147" s="17"/>
-    </row>
-    <row r="148" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C148" s="17" t="s">
+      <c r="I147" s="19"/>
+      <c r="J147" s="19"/>
+      <c r="K147" s="19"/>
+      <c r="N147" s="11"/>
+      <c r="O147" s="11"/>
+      <c r="P147" s="11"/>
+      <c r="S147" s="11"/>
+      <c r="T147" s="11"/>
+      <c r="U147" s="11"/>
+    </row>
+    <row r="148" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C148" t="s">
         <v>198</v>
       </c>
-      <c r="D148" s="17"/>
-      <c r="E148" s="17"/>
-      <c r="F148" s="17"/>
-      <c r="G148" s="17"/>
-      <c r="H148" s="17"/>
-      <c r="I148" s="27"/>
-      <c r="J148" s="27"/>
-      <c r="K148" s="27"/>
-      <c r="L148" s="17"/>
-      <c r="M148" s="17"/>
-      <c r="N148" s="17"/>
-      <c r="O148" s="17"/>
-      <c r="P148" s="17"/>
-      <c r="Q148" s="17"/>
-      <c r="R148" s="17"/>
-      <c r="S148" s="17"/>
-      <c r="T148" s="17"/>
-      <c r="U148" s="17"/>
-      <c r="V148" s="17"/>
-    </row>
-    <row r="149" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="D149" s="17"/>
-      <c r="E149" s="17"/>
-      <c r="F149" s="17"/>
-      <c r="G149" s="17"/>
-      <c r="H149" s="17"/>
-      <c r="I149" s="27"/>
-      <c r="J149" s="27"/>
-      <c r="K149" s="27"/>
-      <c r="L149" s="17"/>
-      <c r="M149" s="17"/>
-      <c r="N149" s="17"/>
-      <c r="O149" s="17"/>
-      <c r="P149" s="17"/>
-      <c r="Q149" s="17"/>
-      <c r="R149" s="17"/>
-      <c r="S149" s="17"/>
-      <c r="T149" s="17"/>
-      <c r="U149" s="17"/>
-      <c r="V149" s="17"/>
-    </row>
-    <row r="150" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C150" s="17"/>
-      <c r="D150" s="17"/>
-      <c r="E150" s="17"/>
-      <c r="F150" s="17"/>
-      <c r="G150" s="17"/>
-      <c r="H150" s="17"/>
-      <c r="I150" s="27"/>
-      <c r="J150" s="27"/>
-      <c r="K150" s="27"/>
-      <c r="L150" s="17"/>
-      <c r="M150" s="17"/>
-      <c r="N150" s="17"/>
-      <c r="O150" s="17"/>
-      <c r="P150" s="17"/>
-      <c r="Q150" s="17"/>
-      <c r="R150" s="17"/>
-      <c r="S150" s="17"/>
-      <c r="T150" s="17"/>
-      <c r="U150" s="17"/>
-      <c r="V150" s="17"/>
-    </row>
-    <row r="151" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="I148" s="19"/>
+      <c r="J148" s="19"/>
+      <c r="K148" s="19"/>
+    </row>
+    <row r="149" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="I149" s="19"/>
+      <c r="J149" s="19"/>
+      <c r="K149" s="19"/>
+    </row>
+    <row r="150" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="I150" s="19"/>
+      <c r="J150" s="19"/>
+      <c r="K150" s="19"/>
+    </row>
+    <row r="151" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>15</v>
       </c>
-      <c r="C151" s="45" t="s">
+      <c r="C151" t="s">
         <v>202</v>
       </c>
-      <c r="D151" s="17"/>
-      <c r="E151" s="17"/>
-      <c r="F151" s="17"/>
-      <c r="G151" s="17"/>
-      <c r="H151" s="17"/>
-      <c r="I151" s="27"/>
-      <c r="J151" s="27"/>
-      <c r="K151" s="27"/>
-      <c r="L151" s="17"/>
-      <c r="M151" s="17"/>
-      <c r="N151" s="17"/>
-      <c r="O151" s="17"/>
-      <c r="P151" s="17"/>
-      <c r="Q151" s="17"/>
-      <c r="R151" s="17"/>
-      <c r="S151" s="17"/>
-      <c r="T151" s="17"/>
-      <c r="U151" s="17"/>
-      <c r="V151" s="17"/>
-    </row>
-    <row r="152" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C152" s="45" t="s">
+      <c r="I151" s="19"/>
+      <c r="J151" s="19"/>
+      <c r="K151" s="19"/>
+    </row>
+    <row r="152" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C152" t="s">
         <v>199</v>
       </c>
-      <c r="D152" s="17"/>
-      <c r="E152" s="17"/>
-      <c r="F152" s="17"/>
-      <c r="G152" s="17"/>
-      <c r="H152" s="17"/>
-      <c r="I152" s="27"/>
-      <c r="J152" s="27"/>
-      <c r="K152" s="27"/>
-      <c r="L152" s="17"/>
-      <c r="M152" s="17"/>
-      <c r="N152" s="17"/>
-      <c r="O152" s="17"/>
-      <c r="P152" s="17"/>
-      <c r="Q152" s="17"/>
-      <c r="R152" s="17"/>
-      <c r="S152" s="17"/>
-      <c r="T152" s="17"/>
-      <c r="U152" s="17"/>
-      <c r="V152" s="17"/>
-    </row>
-    <row r="153" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C153" s="45" t="s">
+      <c r="I152" s="19"/>
+      <c r="J152" s="19"/>
+      <c r="K152" s="19"/>
+    </row>
+    <row r="153" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C153" t="s">
         <v>200</v>
       </c>
-      <c r="D153" s="27"/>
-      <c r="E153" s="35"/>
-      <c r="F153" s="35"/>
-      <c r="G153" s="35"/>
-      <c r="H153" s="27"/>
-      <c r="I153" s="27"/>
-      <c r="J153" s="35"/>
-      <c r="K153" s="35"/>
-      <c r="L153" s="17"/>
-      <c r="M153" s="17"/>
-      <c r="N153" s="17"/>
-      <c r="O153" s="17"/>
-      <c r="P153" s="17"/>
-      <c r="Q153" s="17"/>
-      <c r="R153" s="17"/>
-      <c r="S153" s="17"/>
-      <c r="T153" s="17"/>
-      <c r="U153" s="17"/>
-      <c r="V153" s="17"/>
-    </row>
-    <row r="154" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C154" s="27" t="s">
+      <c r="D153" s="19"/>
+      <c r="E153" s="31"/>
+      <c r="F153" s="31"/>
+      <c r="G153" s="31"/>
+      <c r="H153" s="19"/>
+      <c r="I153" s="19"/>
+      <c r="J153" s="31"/>
+      <c r="K153" s="31"/>
+    </row>
+    <row r="154" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C154" s="19" t="s">
         <v>201</v>
       </c>
-      <c r="D154" s="27"/>
-      <c r="E154" s="27"/>
-      <c r="F154" s="27"/>
-      <c r="G154" s="27"/>
-      <c r="H154" s="27"/>
-      <c r="I154" s="27"/>
-      <c r="J154" s="27"/>
-      <c r="K154" s="27"/>
-      <c r="L154" s="17"/>
-      <c r="M154" s="17"/>
-      <c r="N154" s="17"/>
-      <c r="O154" s="17"/>
-      <c r="P154" s="17"/>
-      <c r="Q154" s="17"/>
-      <c r="R154" s="17"/>
-      <c r="S154" s="17"/>
-      <c r="T154" s="17"/>
-      <c r="U154" s="17"/>
-      <c r="V154" s="17"/>
-    </row>
-    <row r="155" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C155" s="27"/>
-      <c r="D155" s="27"/>
-      <c r="E155" s="27"/>
-      <c r="F155" s="27"/>
-      <c r="G155" s="27"/>
-      <c r="H155" s="27"/>
-      <c r="I155" s="27"/>
-      <c r="J155" s="27"/>
-      <c r="K155" s="27"/>
-      <c r="L155" s="17"/>
-      <c r="M155" s="17"/>
-      <c r="N155" s="17"/>
-      <c r="O155" s="17"/>
-      <c r="P155" s="17"/>
-      <c r="Q155" s="17"/>
-      <c r="R155" s="17"/>
-      <c r="S155" s="17"/>
-      <c r="T155" s="17"/>
-      <c r="U155" s="17"/>
-      <c r="V155" s="17"/>
-    </row>
-    <row r="156" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C156" s="27"/>
-      <c r="D156" s="27"/>
-      <c r="E156" s="27"/>
-      <c r="F156" s="27"/>
-      <c r="G156" s="27"/>
-      <c r="H156" s="27"/>
-      <c r="I156" s="27"/>
-      <c r="J156" s="27"/>
-      <c r="K156" s="27"/>
-      <c r="L156" s="17"/>
-      <c r="M156" s="17"/>
-      <c r="N156" s="17"/>
-      <c r="O156" s="17"/>
-      <c r="P156" s="17"/>
-      <c r="Q156" s="17"/>
-      <c r="R156" s="17"/>
-      <c r="S156" s="17"/>
-      <c r="T156" s="17"/>
-      <c r="U156" s="17"/>
-      <c r="V156" s="17"/>
-    </row>
-    <row r="157" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="D154" s="19"/>
+      <c r="E154" s="19"/>
+      <c r="F154" s="19"/>
+      <c r="G154" s="19"/>
+      <c r="H154" s="19"/>
+      <c r="I154" s="19"/>
+      <c r="J154" s="19"/>
+      <c r="K154" s="19"/>
+    </row>
+    <row r="155" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C155" s="19"/>
+      <c r="D155" s="19"/>
+      <c r="E155" s="19"/>
+      <c r="F155" s="19"/>
+      <c r="G155" s="19"/>
+      <c r="H155" s="19"/>
+      <c r="I155" s="19"/>
+      <c r="J155" s="19"/>
+      <c r="K155" s="19"/>
+    </row>
+    <row r="156" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C156" s="19"/>
+      <c r="D156" s="19"/>
+      <c r="E156" s="19"/>
+      <c r="F156" s="19"/>
+      <c r="G156" s="19"/>
+      <c r="H156" s="19"/>
+      <c r="I156" s="19"/>
+      <c r="J156" s="19"/>
+      <c r="K156" s="19"/>
+    </row>
+    <row r="157" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>16</v>
       </c>
-      <c r="C157" s="27" t="s">
+      <c r="C157" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="D157" s="27"/>
-      <c r="E157" s="27"/>
-      <c r="F157" s="27"/>
-      <c r="G157" s="27"/>
-      <c r="H157" s="27"/>
-      <c r="I157" s="27"/>
-      <c r="J157" s="27"/>
-      <c r="K157" s="27"/>
-      <c r="L157" s="17"/>
-      <c r="M157" s="17"/>
-      <c r="N157" s="17"/>
-      <c r="O157" s="17"/>
-      <c r="P157" s="17"/>
-      <c r="Q157" s="17"/>
-      <c r="R157" s="17"/>
-      <c r="S157" s="17"/>
-      <c r="T157" s="17"/>
-      <c r="U157" s="17"/>
-      <c r="V157" s="17"/>
-    </row>
-    <row r="158" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C158" s="27" t="s">
+      <c r="D157" s="19"/>
+      <c r="E157" s="19"/>
+      <c r="F157" s="19"/>
+      <c r="G157" s="19"/>
+      <c r="H157" s="19"/>
+      <c r="I157" s="19"/>
+      <c r="J157" s="19"/>
+      <c r="K157" s="19"/>
+    </row>
+    <row r="158" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C158" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="D158" s="27"/>
-      <c r="E158" s="27"/>
-      <c r="F158" s="27"/>
-      <c r="G158" s="27"/>
-      <c r="H158" s="27"/>
-      <c r="I158" s="27"/>
-      <c r="J158" s="27"/>
-      <c r="K158" s="27"/>
-      <c r="L158" s="17"/>
-      <c r="M158" s="17"/>
-      <c r="N158" s="17"/>
-      <c r="O158" s="17"/>
-      <c r="P158" s="17"/>
-      <c r="Q158" s="17"/>
-      <c r="R158" s="17"/>
-      <c r="S158" s="17"/>
-      <c r="T158" s="17"/>
-      <c r="U158" s="17"/>
-      <c r="V158" s="17"/>
-    </row>
-    <row r="159" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C159" s="27"/>
-      <c r="D159" s="27"/>
-      <c r="E159" s="27"/>
-      <c r="F159" s="27"/>
-      <c r="G159" s="27"/>
-      <c r="H159" s="27"/>
-      <c r="I159" s="27"/>
-      <c r="J159" s="27"/>
-      <c r="K159" s="27"/>
-      <c r="L159" s="27"/>
-      <c r="M159" s="27"/>
-      <c r="N159" s="27"/>
-      <c r="O159" s="27"/>
-      <c r="P159" s="44"/>
-      <c r="Q159" s="27"/>
-      <c r="R159" s="17"/>
-      <c r="S159" s="17"/>
-      <c r="T159" s="17"/>
-      <c r="U159" s="17"/>
-      <c r="V159" s="17"/>
-    </row>
-    <row r="160" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C160" s="27"/>
-      <c r="D160" s="27"/>
-      <c r="E160" s="27"/>
-      <c r="F160" s="27"/>
-      <c r="G160" s="27"/>
-      <c r="H160" s="27"/>
-      <c r="I160" s="27"/>
-      <c r="J160" s="27"/>
-      <c r="K160" s="27"/>
-      <c r="L160" s="27"/>
-      <c r="M160" s="27"/>
-      <c r="N160" s="27"/>
-      <c r="O160" s="27"/>
-      <c r="P160" s="44"/>
-      <c r="Q160" s="27"/>
-      <c r="R160" s="17"/>
-      <c r="S160" s="17"/>
-      <c r="T160" s="17"/>
-      <c r="U160" s="17"/>
-      <c r="V160" s="17"/>
-    </row>
-    <row r="161" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="D158" s="19"/>
+      <c r="E158" s="19"/>
+      <c r="F158" s="19"/>
+      <c r="G158" s="19"/>
+      <c r="H158" s="19"/>
+      <c r="I158" s="19"/>
+      <c r="J158" s="19"/>
+      <c r="K158" s="19"/>
+    </row>
+    <row r="159" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C159" s="19"/>
+      <c r="D159" s="19"/>
+      <c r="E159" s="19"/>
+      <c r="F159" s="19"/>
+      <c r="G159" s="19"/>
+      <c r="H159" s="19"/>
+      <c r="I159" s="19"/>
+      <c r="J159" s="19"/>
+      <c r="K159" s="19"/>
+      <c r="L159" s="19"/>
+      <c r="M159" s="19"/>
+      <c r="N159" s="19"/>
+      <c r="O159" s="19"/>
+      <c r="P159" s="39"/>
+      <c r="Q159" s="19"/>
+    </row>
+    <row r="160" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C160" s="19"/>
+      <c r="D160" s="19"/>
+      <c r="E160" s="19"/>
+      <c r="F160" s="19"/>
+      <c r="G160" s="19"/>
+      <c r="H160" s="19"/>
+      <c r="I160" s="19"/>
+      <c r="J160" s="19"/>
+      <c r="K160" s="19"/>
+      <c r="L160" s="19"/>
+      <c r="M160" s="19"/>
+      <c r="N160" s="19"/>
+      <c r="O160" s="19"/>
+      <c r="P160" s="39"/>
+      <c r="Q160" s="19"/>
+    </row>
+    <row r="161" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>17</v>
       </c>
-      <c r="C161" s="27"/>
-      <c r="D161" s="27"/>
-      <c r="E161" s="27"/>
-      <c r="F161" s="27"/>
-      <c r="G161" s="27"/>
-      <c r="H161" s="27"/>
-      <c r="I161" s="27"/>
-      <c r="J161" s="27"/>
-      <c r="K161" s="27"/>
-      <c r="L161" s="27"/>
-      <c r="M161" s="27"/>
-      <c r="N161" s="27"/>
-      <c r="O161" s="27"/>
-      <c r="P161" s="27"/>
-      <c r="Q161" s="27"/>
-      <c r="R161" s="17"/>
-      <c r="S161" s="17"/>
-      <c r="T161" s="17"/>
-      <c r="U161" s="17"/>
-      <c r="V161" s="17"/>
-    </row>
-    <row r="162" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C162" s="27"/>
-      <c r="D162" s="27"/>
-      <c r="E162" s="27"/>
-      <c r="F162" s="27"/>
-      <c r="G162" s="27"/>
-      <c r="H162" s="27"/>
-      <c r="I162" s="27"/>
-      <c r="J162" s="27"/>
-      <c r="K162" s="27"/>
-      <c r="L162" s="27"/>
-      <c r="M162" s="27"/>
-      <c r="N162" s="27"/>
-      <c r="O162" s="27"/>
-      <c r="P162" s="27"/>
-      <c r="Q162" s="27"/>
-      <c r="R162" s="17"/>
-      <c r="S162" s="17"/>
-      <c r="T162" s="17"/>
-      <c r="U162" s="17"/>
-      <c r="V162" s="17"/>
-    </row>
-    <row r="163" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C163" s="27"/>
-      <c r="D163" s="27"/>
-      <c r="E163" s="27"/>
-      <c r="F163" s="27"/>
-      <c r="G163" s="27"/>
-      <c r="H163" s="27"/>
-      <c r="I163" s="27"/>
-      <c r="J163" s="27"/>
-      <c r="K163" s="27"/>
-      <c r="L163" s="27"/>
-      <c r="M163" s="27"/>
-      <c r="N163" s="27"/>
-      <c r="O163" s="27"/>
-      <c r="P163" s="27"/>
-      <c r="Q163" s="27"/>
-      <c r="R163" s="17"/>
-      <c r="S163" s="17"/>
-      <c r="T163" s="17"/>
-      <c r="U163" s="17"/>
-      <c r="V163" s="17"/>
-    </row>
-    <row r="164" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C164" s="27"/>
-      <c r="D164" s="27"/>
-      <c r="E164" s="27"/>
-      <c r="F164" s="27"/>
-      <c r="G164" s="27"/>
-      <c r="H164" s="27"/>
-      <c r="I164" s="27"/>
-      <c r="J164" s="27"/>
-      <c r="K164" s="27"/>
-      <c r="L164" s="27"/>
-      <c r="M164" s="27"/>
-      <c r="N164" s="27"/>
-      <c r="O164" s="27"/>
-      <c r="P164" s="27"/>
-      <c r="Q164" s="27"/>
-      <c r="R164" s="17"/>
-    </row>
-    <row r="165" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C165" s="17"/>
-      <c r="D165" s="17"/>
-      <c r="E165" s="17"/>
-      <c r="F165" s="17"/>
-      <c r="G165" s="17"/>
-      <c r="H165" s="17"/>
-      <c r="I165" s="17"/>
-      <c r="J165" s="17"/>
-      <c r="K165" s="17"/>
-      <c r="L165" s="17"/>
-      <c r="M165" s="17"/>
-      <c r="N165" s="17"/>
-      <c r="O165" s="17"/>
-      <c r="P165" s="17"/>
-      <c r="Q165" s="17"/>
-      <c r="R165" s="17"/>
-    </row>
-    <row r="166" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C166" s="17"/>
-      <c r="D166" s="17"/>
-      <c r="E166" s="17"/>
-      <c r="F166" s="17"/>
-      <c r="G166" s="17"/>
-      <c r="H166" s="17"/>
-      <c r="I166" s="17"/>
-      <c r="J166" s="17"/>
-      <c r="K166" s="17"/>
-      <c r="L166" s="17"/>
-      <c r="M166" s="17"/>
-      <c r="N166" s="17"/>
-      <c r="O166" s="17"/>
-      <c r="P166" s="17"/>
-      <c r="Q166" s="17"/>
-      <c r="R166" s="17"/>
-    </row>
-    <row r="167" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C167" s="17"/>
-      <c r="D167" s="17"/>
-      <c r="E167" s="17"/>
-      <c r="F167" s="17"/>
-      <c r="G167" s="17"/>
-      <c r="H167" s="17"/>
-      <c r="I167" s="17"/>
-      <c r="J167" s="17"/>
-      <c r="K167" s="17"/>
-      <c r="L167" s="17"/>
-      <c r="M167" s="17"/>
-      <c r="N167" s="17"/>
-      <c r="O167" s="17"/>
-      <c r="P167" s="17"/>
-      <c r="Q167" s="17"/>
-      <c r="R167" s="17"/>
-    </row>
-    <row r="168" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C168" s="17"/>
-      <c r="D168" s="17"/>
-      <c r="E168" s="17"/>
-      <c r="F168" s="17"/>
-      <c r="G168" s="17"/>
-      <c r="H168" s="17"/>
-      <c r="I168" s="17"/>
-      <c r="J168" s="17"/>
-      <c r="K168" s="17"/>
-      <c r="L168" s="17"/>
-      <c r="M168" s="17"/>
-      <c r="N168" s="17"/>
-      <c r="O168" s="17"/>
-      <c r="P168" s="17"/>
-      <c r="Q168" s="17"/>
-      <c r="R168" s="17"/>
-    </row>
-    <row r="169" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C169" s="17"/>
-      <c r="D169" s="17"/>
-      <c r="E169" s="17"/>
-      <c r="F169" s="17"/>
-      <c r="G169" s="17"/>
-      <c r="H169" s="17"/>
-      <c r="I169" s="17"/>
-      <c r="J169" s="17"/>
-      <c r="K169" s="17"/>
-      <c r="L169" s="17"/>
-      <c r="M169" s="17"/>
-      <c r="N169" s="17"/>
-      <c r="O169" s="17"/>
-      <c r="P169" s="17"/>
-      <c r="Q169" s="17"/>
-      <c r="R169" s="17"/>
-    </row>
-    <row r="170" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C170" s="17"/>
-      <c r="D170" s="17"/>
-      <c r="E170" s="17"/>
-      <c r="F170" s="17"/>
-      <c r="G170" s="17"/>
-      <c r="H170" s="17"/>
-      <c r="I170" s="17"/>
-      <c r="J170" s="17"/>
-      <c r="K170" s="17"/>
-      <c r="L170" s="17"/>
-      <c r="M170" s="17"/>
-      <c r="N170" s="17"/>
-      <c r="O170" s="17"/>
-      <c r="P170" s="17"/>
-      <c r="Q170" s="17"/>
-      <c r="R170" s="17"/>
-    </row>
-    <row r="171" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="C171" s="17"/>
-      <c r="D171" s="17"/>
-      <c r="E171" s="17"/>
-      <c r="F171" s="17"/>
-      <c r="G171" s="17"/>
-      <c r="H171" s="17"/>
-      <c r="I171" s="17"/>
-      <c r="J171" s="17"/>
-      <c r="K171" s="17"/>
-      <c r="L171" s="17"/>
-      <c r="M171" s="17"/>
-      <c r="N171" s="17"/>
-      <c r="O171" s="17"/>
-      <c r="P171" s="17"/>
-      <c r="Q171" s="17"/>
-      <c r="R171" s="17"/>
-    </row>
-    <row r="172" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C161" s="19"/>
+      <c r="D161" s="19"/>
+      <c r="E161" s="19"/>
+      <c r="F161" s="19"/>
+      <c r="G161" s="19"/>
+      <c r="H161" s="19"/>
+      <c r="I161" s="19"/>
+      <c r="J161" s="19"/>
+      <c r="K161" s="19"/>
+      <c r="L161" s="19"/>
+      <c r="M161" s="19"/>
+      <c r="N161" s="19"/>
+      <c r="O161" s="19"/>
+      <c r="P161" s="19"/>
+      <c r="Q161" s="19"/>
+    </row>
+    <row r="162" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C162" s="19"/>
+      <c r="D162" s="19"/>
+      <c r="E162" s="19"/>
+      <c r="F162" s="19"/>
+      <c r="G162" s="19"/>
+      <c r="H162" s="19"/>
+      <c r="I162" s="19"/>
+      <c r="J162" s="19"/>
+      <c r="K162" s="19"/>
+      <c r="L162" s="19"/>
+      <c r="M162" s="19"/>
+      <c r="N162" s="19"/>
+      <c r="O162" s="19"/>
+      <c r="P162" s="19"/>
+      <c r="Q162" s="19"/>
+    </row>
+    <row r="163" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C163" s="19"/>
+      <c r="D163" s="19"/>
+      <c r="E163" s="19"/>
+      <c r="F163" s="19"/>
+      <c r="G163" s="19"/>
+      <c r="H163" s="19"/>
+      <c r="I163" s="19"/>
+      <c r="J163" s="19"/>
+      <c r="K163" s="19"/>
+      <c r="L163" s="19"/>
+      <c r="M163" s="19"/>
+      <c r="N163" s="19"/>
+      <c r="O163" s="19"/>
+      <c r="P163" s="19"/>
+      <c r="Q163" s="19"/>
+    </row>
+    <row r="164" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C164" s="19"/>
+      <c r="D164" s="19"/>
+      <c r="E164" s="19"/>
+      <c r="F164" s="19"/>
+      <c r="G164" s="19"/>
+      <c r="H164" s="19"/>
+      <c r="I164" s="19"/>
+      <c r="J164" s="19"/>
+      <c r="K164" s="19"/>
+      <c r="L164" s="19"/>
+      <c r="M164" s="19"/>
+      <c r="N164" s="19"/>
+      <c r="O164" s="19"/>
+      <c r="P164" s="19"/>
+      <c r="Q164" s="19"/>
+    </row>
+    <row r="172" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>18</v>
       </c>
       <c r="C172" t="s">
         <v>205</v>
       </c>
-      <c r="G172" s="17"/>
-      <c r="H172" s="17"/>
-      <c r="I172" s="17"/>
-      <c r="K172" s="17"/>
-      <c r="L172" s="17"/>
-      <c r="M172" s="17"/>
-      <c r="N172" s="17"/>
-      <c r="O172" s="17"/>
-      <c r="P172" s="17"/>
-      <c r="Q172" s="17"/>
-      <c r="R172" s="17"/>
-    </row>
-    <row r="173" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="173" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C173" t="s">
         <v>206</v>
       </c>
-      <c r="G173" s="17"/>
-      <c r="H173" s="17"/>
-      <c r="I173" s="17"/>
-    </row>
-    <row r="174" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="174" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C174" t="s">
         <v>207</v>
       </c>
-      <c r="G174" s="17"/>
-      <c r="H174" s="17"/>
-      <c r="I174" s="17"/>
-    </row>
-    <row r="175" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="G175" s="17"/>
-      <c r="H175" s="17"/>
-      <c r="I175" s="17"/>
-    </row>
-    <row r="176" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="G176" s="17"/>
-      <c r="H176" s="17"/>
-      <c r="I176" s="17"/>
     </row>
     <row r="177" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A177">
@@ -10147,10 +9491,6 @@
       <c r="I178" s="12">
         <v>45627</v>
       </c>
-      <c r="L178" s="17"/>
-      <c r="M178" s="17"/>
-      <c r="N178" s="17"/>
-      <c r="O178" s="17"/>
     </row>
     <row r="179" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C179" s="7" t="s">
@@ -10174,10 +9514,9 @@
       <c r="I179" s="12">
         <v>45047</v>
       </c>
-      <c r="L179" s="17"/>
-      <c r="M179" s="47"/>
-      <c r="N179" s="47"/>
-      <c r="O179" s="47"/>
+      <c r="M179" s="11"/>
+      <c r="N179" s="11"/>
+      <c r="O179" s="11"/>
     </row>
     <row r="180" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C180" s="7" t="s">
@@ -10201,10 +9540,6 @@
       <c r="I180" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="L180" s="17"/>
-      <c r="M180" s="17"/>
-      <c r="N180" s="17"/>
-      <c r="O180" s="17"/>
     </row>
     <row r="181" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C181" s="7" t="s">
@@ -10228,10 +9563,6 @@
       <c r="I181" s="12">
         <v>45627</v>
       </c>
-      <c r="L181" s="17"/>
-      <c r="M181" s="17"/>
-      <c r="N181" s="17"/>
-      <c r="O181" s="17"/>
     </row>
     <row r="182" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C182" s="7" t="s">
@@ -10255,10 +9586,6 @@
       <c r="I182" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="L182" s="17"/>
-      <c r="M182" s="17"/>
-      <c r="N182" s="17"/>
-      <c r="O182" s="17"/>
     </row>
     <row r="183" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C183" s="7" t="s">
@@ -10282,10 +9609,6 @@
       <c r="I183" s="12">
         <v>45047</v>
       </c>
-      <c r="L183" s="17"/>
-      <c r="M183" s="17"/>
-      <c r="N183" s="17"/>
-      <c r="O183" s="17"/>
     </row>
     <row r="184" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C184" s="7" t="s">
@@ -10309,10 +9632,8 @@
       <c r="I184" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="L184" s="17"/>
-      <c r="M184" s="47"/>
-      <c r="N184" s="47"/>
-      <c r="O184" s="17"/>
+      <c r="M184" s="11"/>
+      <c r="N184" s="11"/>
     </row>
     <row r="185" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C185" s="7" t="s">
@@ -10336,10 +9657,7 @@
       <c r="I185" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="L185" s="17"/>
-      <c r="M185" s="17"/>
-      <c r="N185" s="48"/>
-      <c r="O185" s="17"/>
+      <c r="N185" s="40"/>
     </row>
     <row r="186" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C186" s="7" t="s">
@@ -10363,10 +9681,7 @@
       <c r="I186" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="L186" s="17"/>
-      <c r="M186" s="17"/>
-      <c r="N186" s="48"/>
-      <c r="O186" s="17"/>
+      <c r="N186" s="40"/>
     </row>
     <row r="187" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C187" s="7" t="s">
@@ -10390,10 +9705,6 @@
       <c r="I187" s="12">
         <v>45627</v>
       </c>
-      <c r="L187" s="17"/>
-      <c r="M187" s="17"/>
-      <c r="N187" s="17"/>
-      <c r="O187" s="17"/>
     </row>
     <row r="188" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C188" s="7" t="s">
@@ -10417,10 +9728,6 @@
       <c r="I188" s="12">
         <v>45047</v>
       </c>
-      <c r="L188" s="17"/>
-      <c r="M188" s="17"/>
-      <c r="N188" s="17"/>
-      <c r="O188" s="17"/>
     </row>
     <row r="189" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C189" s="7" t="s">
@@ -10429,7 +9736,7 @@
       <c r="D189" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E189" s="46">
+      <c r="E189" s="7">
         <v>2</v>
       </c>
       <c r="F189" s="7" t="s">
@@ -10444,16 +9751,6 @@
       <c r="I189" s="12">
         <v>45627</v>
       </c>
-      <c r="L189" s="17"/>
-      <c r="M189" s="17"/>
-      <c r="N189" s="17"/>
-      <c r="O189" s="17"/>
-    </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="L190" s="17"/>
-      <c r="M190" s="17"/>
-      <c r="N190" s="17"/>
-      <c r="O190" s="17"/>
     </row>
     <row r="192" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A192">
@@ -10558,7 +9855,7 @@
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C206" s="49" t="s">
+      <c r="C206" s="14" t="s">
         <v>212</v>
       </c>
     </row>
